--- a/Entry_Level_Users_Report.xlsx
+++ b/Entry_Level_Users_Report.xlsx
@@ -427,62 +427,62 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>ONKAR RAJSHEKHAR UMBRAJKAR</v>
+        <v>Shivam sharma</v>
       </c>
       <c r="B2" t="str">
-        <v>8087704399</v>
+        <v>7428877742</v>
       </c>
       <c r="C2" t="str">
-        <v>Croma- A243 -Solapur-Murarji Peth</v>
+        <v>Croma- A048 -Delhi-SouthEx</v>
       </c>
       <c r="D2">
         <v>19</v>
       </c>
       <c r="E2" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="F2" t="str">
         <v>❌</v>
       </c>
       <c r="G2" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Shivam sharma</v>
+        <v>Anvihalankar43@gmail.com</v>
       </c>
       <c r="B3" t="str">
-        <v>7428877742</v>
+        <v>9049078997</v>
       </c>
       <c r="C3" t="str">
-        <v>Croma- A048 -Delhi-SouthEx</v>
+        <v>Croma- A172 -Porvorim-Bardez</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" t="str">
         <v>❌</v>
       </c>
       <c r="F3" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="G3" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Umesh p shinde</v>
+        <v>Syed Abbas</v>
       </c>
       <c r="B4" t="str">
-        <v>9922663882</v>
+        <v>8892227414</v>
       </c>
       <c r="C4" t="str">
-        <v>Croma- A156 -Pune-Baner</v>
+        <v>Croma- A045 -Bangalore-Indira Nagar</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E4" t="str">
         <v>❌</v>
@@ -496,39 +496,39 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>TUSHAR SETHI</v>
+        <v>Chandrashekar R</v>
       </c>
       <c r="B5" t="str">
-        <v>8218981308</v>
+        <v>9036451290</v>
       </c>
       <c r="C5" t="str">
-        <v>Croma- A135 -Noida-Logix Mall</v>
+        <v>Croma- A515 -Bangalore-Gottigere</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E5" t="str">
         <v>❌</v>
       </c>
       <c r="F5" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G5" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Anvihalankar43@gmail.com</v>
+        <v>NAVEEN KUMAR DUBEY</v>
       </c>
       <c r="B6" t="str">
-        <v>9049078997</v>
+        <v>9582576831</v>
       </c>
       <c r="C6" t="str">
-        <v>Croma- A172 -Porvorim-Bardez</v>
+        <v>Croma- A306 -Gurugram-Sector 86</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" t="str">
         <v>❌</v>
@@ -542,16 +542,16 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Mahadev Prasad N</v>
+        <v>Shekh malik shekh rashid</v>
       </c>
       <c r="B7" t="str">
-        <v>7899180977</v>
+        <v>8788883037</v>
       </c>
       <c r="C7" t="str">
-        <v>Croma- A073 -Bangalore-Banshankari</v>
+        <v>VS- Pune(Kondhawa)</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7" t="str">
         <v>❌</v>
@@ -565,16 +565,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Syed Abbas</v>
+        <v>Prashanth</v>
       </c>
       <c r="B8" t="str">
-        <v>8892227414</v>
+        <v>7780617002</v>
       </c>
       <c r="C8" t="str">
-        <v>Croma- A045 -Bangalore-Indira Nagar</v>
+        <v>Croma- A170 -Hyderabad-Kukatpally</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" t="str">
         <v>❌</v>
@@ -588,13 +588,13 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Chandrashekar R</v>
+        <v>ALAGAPPAN KARTHICK</v>
       </c>
       <c r="B9" t="str">
-        <v>9036451290</v>
+        <v>9345535583</v>
       </c>
       <c r="C9" t="str">
-        <v>Croma- A515 -Bangalore-Gottigere</v>
+        <v>Croma- A213 -Salem-Bharathi Street</v>
       </c>
       <c r="D9">
         <v>13</v>
@@ -611,13 +611,13 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>GOVINDA MAHILANGE</v>
+        <v>SACHIN SHARMA</v>
       </c>
       <c r="B10" t="str">
-        <v>9713096992</v>
+        <v>9625253553</v>
       </c>
       <c r="C10" t="str">
-        <v>Croma- A219 -Raipur-VIP Chowk</v>
+        <v>VS- Delhi(Dwarka) Br</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -634,16 +634,16 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>ALAGAPPAN KARTHICK</v>
+        <v>Sanket sanjayrao andeo</v>
       </c>
       <c r="B11" t="str">
-        <v>9345535583</v>
+        <v>8788991233</v>
       </c>
       <c r="C11" t="str">
-        <v>Croma- A213 -Salem-Bharathi Street</v>
+        <v>Croma- A354 -Nagpur-Wardha Road</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="str">
         <v>❌</v>
@@ -657,13 +657,13 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Sanket sanjayrao andeo</v>
+        <v>SHAHNAWAZ MOHAMMED AZAD SHAIKH</v>
       </c>
       <c r="B12" t="str">
-        <v>8788991233</v>
+        <v>9321222370</v>
       </c>
       <c r="C12" t="str">
-        <v>Croma- A354 -Nagpur-Wardha Road</v>
+        <v>VS- Vasai Br</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -672,21 +672,21 @@
         <v>❌</v>
       </c>
       <c r="F12" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="G12" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>NAVEEN KUMAR DUBEY</v>
+        <v>Shahbaaz shaikh</v>
       </c>
       <c r="B13" t="str">
-        <v>9582576831</v>
+        <v>9324052838</v>
       </c>
       <c r="C13" t="str">
-        <v>Croma- A306 -Gurugram-Sector 86</v>
+        <v>Croma- A507 -Navi Mumbai-Ulwe</v>
       </c>
       <c r="D13">
         <v>11</v>
@@ -695,21 +695,21 @@
         <v>❌</v>
       </c>
       <c r="F13" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G13" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>MOHAMED IMRAN AHMED</v>
+        <v>Imran Khan</v>
       </c>
       <c r="B14" t="str">
-        <v>9945111142</v>
+        <v>9384622471</v>
       </c>
       <c r="C14" t="str">
-        <v>Croma- A066 -Bangalore-Bannerghatta Mall</v>
+        <v>Reliance Digital- TAZ4 - RRL CDIT-Vijaya Mall</v>
       </c>
       <c r="D14">
         <v>11</v>
@@ -718,21 +718,21 @@
         <v>❌</v>
       </c>
       <c r="F14" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G14" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Shahbaaz shaikh</v>
+        <v>Mishall Martin H</v>
       </c>
       <c r="B15" t="str">
-        <v>9324052838</v>
+        <v>8939887188</v>
       </c>
       <c r="C15" t="str">
-        <v>Croma- A507 -Navi Mumbai-Ulwe</v>
+        <v>Croma- A037 -Chennai-Anna Nagar</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -749,16 +749,16 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Imran Khan</v>
+        <v>Swapnil chintal</v>
       </c>
       <c r="B16" t="str">
-        <v>9384622471</v>
+        <v>7040589065</v>
       </c>
       <c r="C16" t="str">
-        <v>Reliance Digital- TAZ4 - RRL CDIT-Vijaya Mall</v>
+        <v>Croma- A314 -Ahmednagar-Kohinoor Mall</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" t="str">
         <v>❌</v>
@@ -772,16 +772,16 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Mishall Martin H</v>
+        <v>Prabhakar Kumar Poddar</v>
       </c>
       <c r="B17" t="str">
-        <v>8939887188</v>
+        <v>8130780119</v>
       </c>
       <c r="C17" t="str">
-        <v>Croma- A037 -Chennai-Anna Nagar</v>
+        <v>Croma- A276 -Delhi-Civil Lines</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" t="str">
         <v>❌</v>
@@ -795,13 +795,13 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Prabhakar Kumar Poddar</v>
+        <v>PREETY SINHA</v>
       </c>
       <c r="B18" t="str">
-        <v>8130780119</v>
+        <v>9762975009</v>
       </c>
       <c r="C18" t="str">
-        <v>Croma- A276 -Delhi-Civil Lines</v>
+        <v>VS- Pune(Dange Chowk)</v>
       </c>
       <c r="D18">
         <v>10</v>
@@ -841,36 +841,36 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>SHAHNAWAZ MOHAMMED AZAD SHAIKH</v>
+        <v>Pradeep kumar</v>
       </c>
       <c r="B20" t="str">
-        <v>9321222370</v>
+        <v>7844862077</v>
       </c>
       <c r="C20" t="str">
-        <v>VS- Vasai Br</v>
+        <v>Croma- A032 -Delhi-Kamlanagar</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" t="str">
         <v>❌</v>
       </c>
       <c r="F20" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G20" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Pradeep kumar</v>
+        <v>Imran Motiwala</v>
       </c>
       <c r="B21" t="str">
-        <v>7844862077</v>
+        <v>7977773143</v>
       </c>
       <c r="C21" t="str">
-        <v>Croma- A032 -Delhi-Kamlanagar</v>
+        <v>Croma- A488 -Nashik-Dindori Road</v>
       </c>
       <c r="D21">
         <v>9</v>
@@ -879,21 +879,21 @@
         <v>❌</v>
       </c>
       <c r="F21" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="G21" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Altamash Miyabhai Shaikh</v>
+        <v>PUNAM SANTOSHSINGH PANDELE</v>
       </c>
       <c r="B22" t="str">
-        <v>7020496418</v>
+        <v>7030998724</v>
       </c>
       <c r="C22" t="str">
-        <v>Croma- A215 -Nashik-Nashik Road</v>
+        <v>VS- Pune(Dhankawadi-Satara Rd)</v>
       </c>
       <c r="D22">
         <v>9</v>
@@ -910,13 +910,13 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Vasanthi</v>
+        <v>Altamash Miyabhai Shaikh</v>
       </c>
       <c r="B23" t="str">
-        <v>8248188669</v>
+        <v>7020496418</v>
       </c>
       <c r="C23" t="str">
-        <v>Croma- A097 -Chennai-PMC Mall</v>
+        <v>Croma- A215 -Nashik-Nashik Road</v>
       </c>
       <c r="D23">
         <v>9</v>
@@ -925,21 +925,21 @@
         <v>❌</v>
       </c>
       <c r="F23" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="G23" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>MONU</v>
+        <v>Vasanthi</v>
       </c>
       <c r="B24" t="str">
-        <v>7210101783</v>
+        <v>8248188669</v>
       </c>
       <c r="C24" t="str">
-        <v>Croma- A718 -Noida-Expo Plaza</v>
+        <v>Croma- A097 -Chennai-PMC Mall</v>
       </c>
       <c r="D24">
         <v>9</v>
@@ -951,24 +951,24 @@
         <v>❌</v>
       </c>
       <c r="G24" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>REHAAN</v>
+        <v>MONU</v>
       </c>
       <c r="B25" t="str">
-        <v>9911912199</v>
+        <v>7210101783</v>
       </c>
       <c r="C25" t="str">
-        <v>Croma- A555 -Noida-Sector 122</v>
+        <v>Croma- A718 -Noida-Expo Plaza</v>
       </c>
       <c r="D25">
         <v>9</v>
       </c>
       <c r="E25" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="F25" t="str">
         <v>❌</v>
@@ -979,36 +979,36 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Ajay Bapu Khade</v>
+        <v>REHAAN</v>
       </c>
       <c r="B26" t="str">
-        <v>9762449504</v>
+        <v>9911912199</v>
       </c>
       <c r="C26" t="str">
-        <v>VS- Pune(Station Rd) Br</v>
+        <v>Croma- A555 -Noida-Sector 122</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="F26" t="str">
         <v>❌</v>
       </c>
       <c r="G26" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>SOURAV KUMAR</v>
+        <v>Ajay Bapu Khade</v>
       </c>
       <c r="B27" t="str">
-        <v>9814654646</v>
+        <v>9762449504</v>
       </c>
       <c r="C27" t="str">
-        <v>Croma- A163 -Jalandhar-Lajpat Nagar</v>
+        <v>VS- Pune(Station Rd) Br</v>
       </c>
       <c r="D27">
         <v>8</v>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Prashanth</v>
+        <v>MOHAMMED HASAN</v>
       </c>
       <c r="B28" t="str">
-        <v>7780617002</v>
+        <v>7337016584</v>
       </c>
       <c r="C28" t="str">
-        <v>Croma- A170 -Hyderabad-Kukatpally</v>
+        <v>Croma- A562 -Hyderabad-Manikonda</v>
       </c>
       <c r="D28">
         <v>8</v>
@@ -1048,13 +1048,13 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Aviazuu</v>
+        <v>SOURAV KUMAR</v>
       </c>
       <c r="B29" t="str">
-        <v>9019950849</v>
+        <v>9814654646</v>
       </c>
       <c r="C29" t="str">
-        <v>Croma- A605 -Bangalore-Basaveshwar Nagar</v>
+        <v>Croma- A163 -Jalandhar-Lajpat Nagar</v>
       </c>
       <c r="D29">
         <v>8</v>
@@ -1071,13 +1071,13 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Sonu Tanwar</v>
+        <v>SACHIN HARIKESH DUBEY</v>
       </c>
       <c r="B30" t="str">
-        <v>7000079717</v>
+        <v>6353129463</v>
       </c>
       <c r="C30" t="str">
-        <v>Croma- A186 -Indore-Vijay Nagar Square</v>
+        <v>VS- Surat Br</v>
       </c>
       <c r="D30">
         <v>8</v>
@@ -1086,24 +1086,24 @@
         <v>❌</v>
       </c>
       <c r="F30" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="G30" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>SHAIKH SHAHEBAZ</v>
+        <v>Aviazuu</v>
       </c>
       <c r="B31" t="str">
-        <v>7218253698</v>
+        <v>9019950849</v>
       </c>
       <c r="C31" t="str">
-        <v>VS- Pune(Hadapsar)</v>
+        <v>Croma- A605 -Bangalore-Basaveshwar Nagar</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E31" t="str">
         <v>❌</v>
@@ -1117,36 +1117,36 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>YASHWANT SINGH</v>
+        <v>Sonu Tanwar</v>
       </c>
       <c r="B32" t="str">
-        <v>8896365474</v>
+        <v>7000079717</v>
       </c>
       <c r="C32" t="str">
-        <v>Croma- A039 -Mumbai-Sion</v>
+        <v>Croma- A186 -Indore-Vijay Nagar Square</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E32" t="str">
         <v>❌</v>
       </c>
       <c r="F32" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G32" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Shekh malik shekh rashid</v>
+        <v>SHAIKH SHAHEBAZ</v>
       </c>
       <c r="B33" t="str">
-        <v>8788883037</v>
+        <v>7218253698</v>
       </c>
       <c r="C33" t="str">
-        <v>VS- Pune(Kondhawa)</v>
+        <v>VS- Pune(Hadapsar)</v>
       </c>
       <c r="D33">
         <v>7</v>
@@ -1209,13 +1209,13 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Imran Motiwala</v>
+        <v>Seema shriram yadav</v>
       </c>
       <c r="B36" t="str">
-        <v>7977773143</v>
+        <v>8488905860</v>
       </c>
       <c r="C36" t="str">
-        <v>Croma- A488 -Nashik-Dindori Road</v>
+        <v>Croma- A195 -Vapi-Daman Road</v>
       </c>
       <c r="D36">
         <v>6</v>
@@ -1224,21 +1224,21 @@
         <v>❌</v>
       </c>
       <c r="F36" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G36" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Seema shriram yadav</v>
+        <v>Salman Khan</v>
       </c>
       <c r="B37" t="str">
-        <v>8488905860</v>
+        <v>7676060317</v>
       </c>
       <c r="C37" t="str">
-        <v>Croma- A195 -Vapi-Daman Road</v>
+        <v>Croma- A326 -Bangalore-Kanakpura</v>
       </c>
       <c r="D37">
         <v>6</v>
@@ -1255,13 +1255,13 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Bhavnil patel</v>
+        <v>MOHAMMED TABEEHAN</v>
       </c>
       <c r="B38" t="str">
-        <v>9377706162</v>
+        <v>8722727829</v>
       </c>
       <c r="C38" t="str">
-        <v>VS- Ahmedabad(Chandkheda Rd) Br</v>
+        <v>Croma- A539 -Bangalore-Mall of Asia</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -1278,13 +1278,13 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>AJMERI SHAMVILAHEMAD DILAWARHUSEN</v>
+        <v>ROHIT DILIP SHELAR</v>
       </c>
       <c r="B39" t="str">
-        <v>6352720564</v>
+        <v>7263993030</v>
       </c>
       <c r="C39" t="str">
-        <v>Croma- A250 -Ahmedabad-Bopal</v>
+        <v>Croma- A049 -Pune-Kothrud</v>
       </c>
       <c r="D39">
         <v>6</v>
@@ -1301,13 +1301,13 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>MOHAMMED TABEEHAN</v>
+        <v>Vikram Kumar</v>
       </c>
       <c r="B40" t="str">
-        <v>8722727829</v>
+        <v>9877732964</v>
       </c>
       <c r="C40" t="str">
-        <v>Croma- A539 -Bangalore-Mall of Asia</v>
+        <v>Croma- A162 -Mohali-VR Mall</v>
       </c>
       <c r="D40">
         <v>6</v>
@@ -1324,13 +1324,13 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Rahul rai</v>
+        <v>Hemalatha</v>
       </c>
       <c r="B41" t="str">
-        <v>8010193101</v>
+        <v>8971383391</v>
       </c>
       <c r="C41" t="str">
-        <v>Croma- A050 -Gurugram-Dlf Mega Mall</v>
+        <v>Croma- A060 -Bangalore-Marathahalli</v>
       </c>
       <c r="D41">
         <v>6</v>
@@ -1347,13 +1347,13 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Abdurrazzaque Sayed</v>
+        <v>SYED ABDUL MAJEED</v>
       </c>
       <c r="B42" t="str">
-        <v>8286460726</v>
+        <v>7386047386</v>
       </c>
       <c r="C42" t="str">
-        <v>Croma- A009 -Navi Mumbai-Belapur</v>
+        <v>Reliance Digital- TB83 - Panjagutta Hyderabad</v>
       </c>
       <c r="D42">
         <v>6</v>
@@ -1362,24 +1362,24 @@
         <v>❌</v>
       </c>
       <c r="F42" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="G42" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>ROHIT DILIP SHELAR</v>
+        <v>RAKESH AJINATH SONAWANE</v>
       </c>
       <c r="B43" t="str">
-        <v>7263993030</v>
+        <v>7499489496</v>
       </c>
       <c r="C43" t="str">
-        <v>Croma- A049 -Pune-Kothrud</v>
+        <v>Croma- A399 -Pune-Bavdhan</v>
       </c>
       <c r="D43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E43" t="str">
         <v>❌</v>
@@ -1393,39 +1393,39 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Vikram Kumar</v>
+        <v>AKASH PAL</v>
       </c>
       <c r="B44" t="str">
-        <v>9877732964</v>
+        <v>8777459719</v>
       </c>
       <c r="C44" t="str">
-        <v>Croma- A162 -Mohali-VR Mall</v>
+        <v>Croma- A385 -Kolkata-Acropolis Mall</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E44" t="str">
         <v>❌</v>
       </c>
       <c r="F44" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="G44" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Hemalatha</v>
+        <v>Preeti</v>
       </c>
       <c r="B45" t="str">
-        <v>8971383391</v>
+        <v>8447229213</v>
       </c>
       <c r="C45" t="str">
-        <v>Croma- A060 -Bangalore-Marathahalli</v>
+        <v>Croma- A120 -Gurugram-Sector 29</v>
       </c>
       <c r="D45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E45" t="str">
         <v>❌</v>
@@ -1439,82 +1439,82 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>SACHIN SHARMA</v>
+        <v>MENTLA ARAVIND</v>
       </c>
       <c r="B46" t="str">
-        <v>9625253553</v>
+        <v>9391576815</v>
       </c>
       <c r="C46" t="str">
-        <v>VS- Delhi(Dwarka) Br</v>
+        <v>VS- Ts(Kothapet)</v>
       </c>
       <c r="D46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E46" t="str">
         <v>❌</v>
       </c>
       <c r="F46" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G46" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Thimmaiah g</v>
+        <v>Md sajid Hussain</v>
       </c>
       <c r="B47" t="str">
-        <v>8147888964</v>
+        <v>8826718526</v>
       </c>
       <c r="C47" t="str">
-        <v>Croma- A591 -Tumkur-BH Road</v>
+        <v>Reliance Digital- TA9U - BB-NOIDA-MALL OF IND</v>
       </c>
       <c r="D47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E47" t="str">
         <v>❌</v>
       </c>
       <c r="F47" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G47" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>SYED ABDUL MAJEED</v>
+        <v>SOUMAJIT ROY</v>
       </c>
       <c r="B48" t="str">
-        <v>7386047386</v>
+        <v>8100432608</v>
       </c>
       <c r="C48" t="str">
-        <v>Reliance Digital- TB83 - Panjagutta Hyderabad</v>
+        <v>Croma- A633 -Kolkata-Salt Lake Sector 1</v>
       </c>
       <c r="D48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E48" t="str">
         <v>❌</v>
       </c>
       <c r="F48" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G48" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>RAKESH AJINATH SONAWANE</v>
+        <v>Mansoor</v>
       </c>
       <c r="B49" t="str">
-        <v>7499489496</v>
+        <v>8296299896</v>
       </c>
       <c r="C49" t="str">
-        <v>Croma- A399 -Pune-Bavdhan</v>
+        <v>Croma- A272 -Shivamoga-Savalanga Road</v>
       </c>
       <c r="D49">
         <v>5</v>
@@ -1523,21 +1523,21 @@
         <v>❌</v>
       </c>
       <c r="F49" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G49" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Swapnil chintal</v>
+        <v>ANSARI SAJID SAJJAD AHMED</v>
       </c>
       <c r="B50" t="str">
-        <v>7040589065</v>
+        <v>8208406748</v>
       </c>
       <c r="C50" t="str">
-        <v>Croma- A314 -Ahmednagar-Kohinoor Mall</v>
+        <v>Croma- A222 -Pune-Katraj</v>
       </c>
       <c r="D50">
         <v>5</v>
@@ -1546,21 +1546,21 @@
         <v>❌</v>
       </c>
       <c r="F50" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="G50" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>AKASH PAL</v>
+        <v>Srinidhi</v>
       </c>
       <c r="B51" t="str">
-        <v>8777459719</v>
+        <v>8088099933</v>
       </c>
       <c r="C51" t="str">
-        <v>Croma- A385 -Kolkata-Acropolis Mall</v>
+        <v>Croma- A236 -Bangalore-Malleshwaram</v>
       </c>
       <c r="D51">
         <v>5</v>
@@ -1569,7 +1569,7 @@
         <v>❌</v>
       </c>
       <c r="F51" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G51" t="str">
         <v>✅</v>
@@ -1577,13 +1577,13 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Preeti</v>
+        <v>Vinoth M</v>
       </c>
       <c r="B52" t="str">
-        <v>8447229213</v>
+        <v>8939590763</v>
       </c>
       <c r="C52" t="str">
-        <v>Croma- A120 -Gurugram-Sector 29</v>
+        <v>Croma- A034 -Chennai-Mount Road</v>
       </c>
       <c r="D52">
         <v>5</v>
@@ -1600,13 +1600,13 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>MENTLA ARAVIND</v>
+        <v>Ajharul haque</v>
       </c>
       <c r="B53" t="str">
-        <v>9391576815</v>
+        <v>6009139717</v>
       </c>
       <c r="C53" t="str">
-        <v>VS- Ts(Kothapet)</v>
+        <v>Croma- A150 -Bangalore-Whitefield</v>
       </c>
       <c r="D53">
         <v>5</v>
@@ -1623,13 +1623,13 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Md sajid Hussain</v>
+        <v>Pappu kumar thakur</v>
       </c>
       <c r="B54" t="str">
-        <v>8826718526</v>
+        <v>9958081152</v>
       </c>
       <c r="C54" t="str">
-        <v>Reliance Digital- TA9U - BB-NOIDA-MALL OF IND</v>
+        <v>Croma- A212 -Gurugram-Worldmark 2</v>
       </c>
       <c r="D54">
         <v>5</v>
@@ -1638,44 +1638,44 @@
         <v>❌</v>
       </c>
       <c r="F54" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="G54" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>SOUMAJIT ROY</v>
+        <v>ALTAF PATEL</v>
       </c>
       <c r="B55" t="str">
-        <v>8100432608</v>
+        <v>8247786383</v>
       </c>
       <c r="C55" t="str">
-        <v>Croma- A633 -Kolkata-Salt Lake Sector 1</v>
+        <v>VS- Ts(Paradise Circle)</v>
       </c>
       <c r="D55">
         <v>5</v>
       </c>
       <c r="E55" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="F55" t="str">
         <v>❌</v>
       </c>
       <c r="G55" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Mansoor</v>
+        <v>MOHAMMED NAYAB</v>
       </c>
       <c r="B56" t="str">
-        <v>8296299896</v>
+        <v>7032236130</v>
       </c>
       <c r="C56" t="str">
-        <v>Croma- A272 -Shivamoga-Savalanga Road</v>
+        <v>Croma- A029 -Hyderabad-Panjagutta</v>
       </c>
       <c r="D56">
         <v>5</v>
@@ -1684,21 +1684,21 @@
         <v>❌</v>
       </c>
       <c r="F56" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="G56" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>ANSARI SAJID SAJJAD AHMED</v>
+        <v>KAPIL KUMAR</v>
       </c>
       <c r="B57" t="str">
-        <v>8208406748</v>
+        <v>9350771004</v>
       </c>
       <c r="C57" t="str">
-        <v>Croma- A222 -Pune-Katraj</v>
+        <v>Croma- A024 -Ghazibad-Aditya Mall</v>
       </c>
       <c r="D57">
         <v>5</v>
@@ -1715,13 +1715,13 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Srinidhi</v>
+        <v>ANAND KUMAR CHOUBEY</v>
       </c>
       <c r="B58" t="str">
-        <v>8088099933</v>
+        <v>7020936996</v>
       </c>
       <c r="C58" t="str">
-        <v>Croma- A236 -Bangalore-Malleshwaram</v>
+        <v>Reliance Digital- TX08 - RRL CDIT Elpro Chinchwad</v>
       </c>
       <c r="D58">
         <v>5</v>
@@ -1733,18 +1733,18 @@
         <v>❌</v>
       </c>
       <c r="G58" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Vinoth M</v>
+        <v>Saad Mahemood Siddiqui</v>
       </c>
       <c r="B59" t="str">
-        <v>8939590763</v>
+        <v>8379043649</v>
       </c>
       <c r="C59" t="str">
-        <v>Croma- A034 -Chennai-Mount Road</v>
+        <v>Reliance Digital- TZ8D - RRL CDIT- Jalna Road</v>
       </c>
       <c r="D59">
         <v>5</v>
@@ -1761,13 +1761,13 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Ajharul haque</v>
+        <v>Rupesh</v>
       </c>
       <c r="B60" t="str">
-        <v>6009139717</v>
+        <v>9008016679</v>
       </c>
       <c r="C60" t="str">
-        <v>Croma- A150 -Bangalore-Whitefield</v>
+        <v>Croma- A452 -Bangalore-KR Puram</v>
       </c>
       <c r="D60">
         <v>5</v>
@@ -1784,13 +1784,13 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Md sadab ahmad</v>
+        <v>Mohammed Waseem</v>
       </c>
       <c r="B61" t="str">
-        <v>9871392425</v>
+        <v>9963708076</v>
       </c>
       <c r="C61" t="str">
-        <v>Croma- A135 -Noida-Logix Mall</v>
+        <v>Reliance Digital- 8823 - RRL CDIT Shivam Road Hyderaba</v>
       </c>
       <c r="D61">
         <v>5</v>
@@ -1799,21 +1799,21 @@
         <v>❌</v>
       </c>
       <c r="F61" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G61" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Pappu kumar thakur</v>
+        <v>Vikas kumar singh</v>
       </c>
       <c r="B62" t="str">
-        <v>9958081152</v>
+        <v>7827178933</v>
       </c>
       <c r="C62" t="str">
-        <v>Croma- A212 -Gurugram-Worldmark 2</v>
+        <v>Reliance Digital- TA9U - BB-NOIDA-MALL OF IND</v>
       </c>
       <c r="D62">
         <v>5</v>
@@ -1822,24 +1822,24 @@
         <v>❌</v>
       </c>
       <c r="F62" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G62" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Mohammed nayab</v>
+        <v>KALAI SELVAN VINOTH KUMAR</v>
       </c>
       <c r="B63" t="str">
-        <v>7032236130</v>
+        <v>9626983020</v>
       </c>
       <c r="C63" t="str">
-        <v>Croma- A029 -Hyderabad-Panjagutta</v>
+        <v>Croma- A650 -Madurai-100 Feet Road</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E63" t="str">
         <v>❌</v>
@@ -1853,39 +1853,39 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>KAPIL KUMAR</v>
+        <v>Sumanth Erugu</v>
       </c>
       <c r="B64" t="str">
-        <v>9350771004</v>
+        <v>7670904613</v>
       </c>
       <c r="C64" t="str">
-        <v>Croma- A024 -Ghazibad-Aditya Mall</v>
+        <v>VS- Ts(Hastinapur)</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E64" t="str">
         <v>❌</v>
       </c>
       <c r="F64" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G64" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>ANAND KUMAR CHOUBEY</v>
+        <v>Hasan ali</v>
       </c>
       <c r="B65" t="str">
-        <v>7020936996</v>
+        <v>6300217495</v>
       </c>
       <c r="C65" t="str">
-        <v>Reliance Digital- TX08 - RRL CDIT Elpro Chinchwad</v>
+        <v>Croma- A470 -Hyderabad-Hyderguda</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E65" t="str">
         <v>❌</v>
@@ -1899,16 +1899,16 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Saad Mahemood Siddiqui</v>
+        <v>VINEET CHOPRA</v>
       </c>
       <c r="B66" t="str">
-        <v>8379043649</v>
+        <v>7289808873</v>
       </c>
       <c r="C66" t="str">
-        <v>Reliance Digital- TZ8D - RRL CDIT- Jalna Road</v>
+        <v>Croma- A182 -Gwalior-City Center</v>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E66" t="str">
         <v>❌</v>
@@ -1922,16 +1922,16 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Jatin Mahajan</v>
+        <v>Ashwani</v>
       </c>
       <c r="B67" t="str">
-        <v>9828499293</v>
+        <v>8130340268</v>
       </c>
       <c r="C67" t="str">
-        <v>A740 - Gorakhpur Taramandal</v>
+        <v>Croma- A417 -Delhi-Patparganj</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E67" t="str">
         <v>❌</v>
@@ -1945,39 +1945,39 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Rupesh</v>
+        <v>KAMALDEEP</v>
       </c>
       <c r="B68" t="str">
-        <v>9008016679</v>
+        <v>9729342716</v>
       </c>
       <c r="C68" t="str">
-        <v>Croma- A452 -Bangalore-KR Puram</v>
+        <v>Croma- A355 -Yamunanagar-Gobindpuri Road</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E68" t="str">
         <v>❌</v>
       </c>
       <c r="F68" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="G68" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Mohammed Waseem</v>
+        <v>SURAJ</v>
       </c>
       <c r="B69" t="str">
-        <v>9963708076</v>
+        <v>9315460397</v>
       </c>
       <c r="C69" t="str">
-        <v>Reliance Digital- 8823 - RRL CDIT Shivam Road Hyderaba</v>
+        <v>VS- Up (Noida Sec.18) Br</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E69" t="str">
         <v>❌</v>
@@ -1991,16 +1991,16 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Vikas kumar singh</v>
+        <v>Azhar Azeem shaikh</v>
       </c>
       <c r="B70" t="str">
-        <v>7827178933</v>
+        <v>7066015149</v>
       </c>
       <c r="C70" t="str">
-        <v>Reliance Digital- TA9U - BB-NOIDA-MALL OF IND</v>
+        <v>Croma- A129 -Pune-PMC Mall</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E70" t="str">
         <v>❌</v>
@@ -2014,39 +2014,39 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>KALAI SELVAN VINOTH KUMAR</v>
+        <v>REHAN ABRAR KADRI</v>
       </c>
       <c r="B71" t="str">
-        <v>9626983020</v>
+        <v>9082546823</v>
       </c>
       <c r="C71" t="str">
-        <v>Croma- A650 -Madurai-100 Feet Road</v>
+        <v>Reliance Digital- TB84 - RRL CDIT Sawan Life Style</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E71" t="str">
         <v>❌</v>
       </c>
       <c r="F71" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="G71" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Hasan ali</v>
+        <v>Sofiyan Billahamar</v>
       </c>
       <c r="B72" t="str">
-        <v>6300217495</v>
+        <v>9322868460</v>
       </c>
       <c r="C72" t="str">
-        <v>Croma- A470 -Hyderabad-Hyderguda</v>
+        <v>Croma- A413 -Jalna-Old Mondha</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E72" t="str">
         <v>❌</v>
@@ -2060,13 +2060,13 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>VINEET CHOPRA</v>
+        <v>Nawab sandimani</v>
       </c>
       <c r="B73" t="str">
-        <v>7289808873</v>
+        <v>9538293353</v>
       </c>
       <c r="C73" t="str">
-        <v>Croma- A182 -Gwalior-City Center</v>
+        <v>Croma- A167 -Hubli-Gokul Road</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -2075,21 +2075,21 @@
         <v>❌</v>
       </c>
       <c r="F73" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="G73" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Ashwani</v>
+        <v>MOHAMMADSALIM Shaikh</v>
       </c>
       <c r="B74" t="str">
-        <v>8130340268</v>
+        <v>7383727765</v>
       </c>
       <c r="C74" t="str">
-        <v>Croma- A417 -Delhi-Patparganj</v>
+        <v>VS- Ahmedabad(Ashram Rd) Br</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -2106,13 +2106,13 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>KAMALDEEP</v>
+        <v>SIVARANJANI M</v>
       </c>
       <c r="B75" t="str">
-        <v>9729342716</v>
+        <v>9585380107</v>
       </c>
       <c r="C75" t="str">
-        <v>Croma- A355 -Yamunanagar-Gobindpuri Road</v>
+        <v>Croma-A665 - Kolathur</v>
       </c>
       <c r="D75">
         <v>3</v>
@@ -2129,13 +2129,13 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>PREETY SINHA</v>
+        <v>Manoj Singh Rathour</v>
       </c>
       <c r="B76" t="str">
-        <v>9762975009</v>
+        <v>8840997933</v>
       </c>
       <c r="C76" t="str">
-        <v>VS- Pune(Dange Chowk)</v>
+        <v>Croma- A359 -Kanpur-Awas Vikas</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -2152,13 +2152,13 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Salman Khan</v>
+        <v>Thakor MohammadAtik</v>
       </c>
       <c r="B77" t="str">
-        <v>7676060317</v>
+        <v>9033786559</v>
       </c>
       <c r="C77" t="str">
-        <v>Croma- A326 -Bangalore-Kanakpura</v>
+        <v>VS- Ahmedabad(Odhav) Br</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -2175,13 +2175,13 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>REHAN ABRAR KADRI</v>
+        <v>Thangamani</v>
       </c>
       <c r="B78" t="str">
-        <v>9082546823</v>
+        <v>9952020332</v>
       </c>
       <c r="C78" t="str">
-        <v>Reliance Digital- TB84 - RRL CDIT Sawan Life Style</v>
+        <v>Croma- A157 -Chennai-Avadi</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -2190,21 +2190,21 @@
         <v>❌</v>
       </c>
       <c r="F78" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G78" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Sofiyan Billahamar</v>
+        <v>PREETI KUMARI</v>
       </c>
       <c r="B79" t="str">
-        <v>9322868460</v>
+        <v>9509795132</v>
       </c>
       <c r="C79" t="str">
-        <v>Croma- A413 -Jalna-Old Mondha</v>
+        <v>Reliance Digital- TVL2 - RRL CDIT-Tonk Road</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -2221,13 +2221,13 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Nawab sandimani</v>
+        <v>Sahil Qureshi</v>
       </c>
       <c r="B80" t="str">
-        <v>9538293353</v>
+        <v>7383843672</v>
       </c>
       <c r="C80" t="str">
-        <v>Croma- A167 -Hubli-Gokul Road</v>
+        <v>Croma- A107 -Ahmedabad-Ratna</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -2236,21 +2236,21 @@
         <v>❌</v>
       </c>
       <c r="F80" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G80" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Manoj Singh Rathour</v>
+        <v>KHALANDER SHAFI</v>
       </c>
       <c r="B81" t="str">
-        <v>8840997933</v>
+        <v>8618660044</v>
       </c>
       <c r="C81" t="str">
-        <v>Croma- A359 -Kanpur-Awas Vikas</v>
+        <v>Croma- A642 -Bangalore-Vega City</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -2267,13 +2267,13 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Thakor MohammadAtik</v>
+        <v>Rahul mukati</v>
       </c>
       <c r="B82" t="str">
-        <v>9033786559</v>
+        <v>9685858504</v>
       </c>
       <c r="C82" t="str">
-        <v>VS- Ahmedabad(Odhav) Br</v>
+        <v>Croma- A456 -Indore-Annapurna Road</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -2282,21 +2282,21 @@
         <v>❌</v>
       </c>
       <c r="F82" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="G82" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Thangamani</v>
+        <v>VASANTHAKUMAR</v>
       </c>
       <c r="B83" t="str">
-        <v>9952020332</v>
+        <v>8248905986</v>
       </c>
       <c r="C83" t="str">
-        <v>Croma- A157 -Chennai-Avadi</v>
+        <v>Croma- A138 -Chennai-BSR Mall</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -2313,13 +2313,13 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>PREETI KUMARI</v>
+        <v>GADIGI NAGENDRAPPA ABHISHEK</v>
       </c>
       <c r="B84" t="str">
-        <v>9509795132</v>
+        <v>8548878859</v>
       </c>
       <c r="C84" t="str">
-        <v>Reliance Digital- TVL2 - RRL CDIT-Tonk Road</v>
+        <v>Croma- A185 -Davanagere-Hadadi Road</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -2328,21 +2328,21 @@
         <v>❌</v>
       </c>
       <c r="F84" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="G84" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Sahil Qureshi</v>
+        <v>SAMAR SEN</v>
       </c>
       <c r="B85" t="str">
-        <v>7383843672</v>
+        <v>8409675656</v>
       </c>
       <c r="C85" t="str">
-        <v>Croma- A107 -Ahmedabad-Ratna</v>
+        <v>Croma- A245 -Dhanbad-Prabhatam Grand Mall</v>
       </c>
       <c r="D85">
         <v>3</v>
@@ -2359,13 +2359,13 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>KHALANDER SHAFI</v>
+        <v>HARPAL KASHYAP</v>
       </c>
       <c r="B86" t="str">
-        <v>8618660044</v>
+        <v>9971338375</v>
       </c>
       <c r="C86" t="str">
-        <v>Croma- A642 -Bangalore-Vega City</v>
+        <v>VS- Delhi(Nawada)</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -2382,13 +2382,13 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Suraj Kumar</v>
+        <v>DINESH KUMAR</v>
       </c>
       <c r="B87" t="str">
-        <v>9517662406</v>
+        <v>7055566688</v>
       </c>
       <c r="C87" t="str">
-        <v>Croma- A041 -Mumbai-Oberoi Mall</v>
+        <v>Croma- A050 -Gurugram-Dlf Mega Mall</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -2400,18 +2400,18 @@
         <v>❌</v>
       </c>
       <c r="G87" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Rahul mukati</v>
+        <v>Pedam Sai Kumar</v>
       </c>
       <c r="B88" t="str">
-        <v>9685858504</v>
+        <v>9573299715</v>
       </c>
       <c r="C88" t="str">
-        <v>Croma- A456 -Indore-Annapurna Road</v>
+        <v>VS- Ts(Nagaram)</v>
       </c>
       <c r="D88">
         <v>3</v>
@@ -2420,21 +2420,21 @@
         <v>❌</v>
       </c>
       <c r="F88" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G88" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>VASANTHAKUMAR</v>
+        <v>LALIT MANIK JAVHERI</v>
       </c>
       <c r="B89" t="str">
-        <v>8248905986</v>
+        <v>7776990478</v>
       </c>
       <c r="C89" t="str">
-        <v>Croma- A138 -Chennai-BSR Mall</v>
+        <v>Reliance Digital- TZ8E - RRL CDIT Pathardi Mu</v>
       </c>
       <c r="D89">
         <v>3</v>
@@ -2446,18 +2446,18 @@
         <v>❌</v>
       </c>
       <c r="G89" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>GADIGI NAGENDRAPPA ABHISHEK</v>
+        <v>Siddheshwar Sanjay Gaikwad</v>
       </c>
       <c r="B90" t="str">
-        <v>8548878859</v>
+        <v>9130537009</v>
       </c>
       <c r="C90" t="str">
-        <v>Croma- A185 -Davanagere-Hadadi Road</v>
+        <v>Reliance Digital- TJ3X - RRL CDIT Thakker Baz</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -2466,21 +2466,21 @@
         <v>❌</v>
       </c>
       <c r="F90" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G90" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>SAMAR SEN</v>
+        <v>AKSHAY NAMDEVRAO MALEKAR</v>
       </c>
       <c r="B91" t="str">
-        <v>8409675656</v>
+        <v>8482855517</v>
       </c>
       <c r="C91" t="str">
-        <v>Croma- A245 -Dhanbad-Prabhatam Grand Mall</v>
+        <v>Reliance Digital- TOH3 - RRL CDIT Westend Mall Yavatmal</v>
       </c>
       <c r="D91">
         <v>3</v>
@@ -2489,21 +2489,21 @@
         <v>❌</v>
       </c>
       <c r="F91" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="G91" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>DINESH KUMAR</v>
+        <v>Siddharth suresh dhage</v>
       </c>
       <c r="B92" t="str">
-        <v>7055566688</v>
+        <v>9112171775</v>
       </c>
       <c r="C92" t="str">
-        <v>Croma- A050 -Gurugram-Dlf Mega Mall</v>
+        <v>Reliance Digital- 8916 - RRL CDIT Lawate Nagar Nasik</v>
       </c>
       <c r="D92">
         <v>3</v>
@@ -2515,18 +2515,18 @@
         <v>❌</v>
       </c>
       <c r="G92" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Md Rashid</v>
+        <v>Mohammad Ibrahim shaikh</v>
       </c>
       <c r="B93" t="str">
-        <v>8434343404</v>
+        <v>7039978507</v>
       </c>
       <c r="C93" t="str">
-        <v>Reliance Digital- TC2V - RRL CDIT Hajipur</v>
+        <v>Reliance Digital- TQB3 - RRL CDIT R City Mall Ghatkopa</v>
       </c>
       <c r="D93">
         <v>3</v>
@@ -2543,13 +2543,13 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>LALIT MANIK JAVHERI</v>
+        <v>PANCHATCHARAM KANNAN</v>
       </c>
       <c r="B94" t="str">
-        <v>7776990478</v>
+        <v>6379961402</v>
       </c>
       <c r="C94" t="str">
-        <v>Reliance Digital- TZ8E - RRL CDIT Pathardi Mu</v>
+        <v>Reliance Digital- 8943 - RRL CDIT Vishaal De Mal Madur</v>
       </c>
       <c r="D94">
         <v>3</v>
@@ -2558,7 +2558,7 @@
         <v>❌</v>
       </c>
       <c r="F94" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="G94" t="str">
         <v>✅</v>
@@ -2566,13 +2566,13 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Siddheshwar Sanjay Gaikwad</v>
+        <v>Satyajit prusty</v>
       </c>
       <c r="B95" t="str">
-        <v>9130537009</v>
+        <v>8260544344</v>
       </c>
       <c r="C95" t="str">
-        <v>Reliance Digital- TJ3X - RRL CDIT Thakker Baz</v>
+        <v>Croma- A454 -Cuttack-College Square</v>
       </c>
       <c r="D95">
         <v>3</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>AKSHAY NAMDEVRAO MALEKAR</v>
+        <v>Hemant sharma</v>
       </c>
       <c r="B96" t="str">
-        <v>8482855517</v>
+        <v>8000774890</v>
       </c>
       <c r="C96" t="str">
-        <v>Reliance Digital- TOH3 - RRL CDIT Westend Mall Yavatmal</v>
+        <v>Reliance Digital- TO34 - RRL CDIT Govind Marg Raja Park</v>
       </c>
       <c r="D96">
         <v>3</v>
@@ -2604,21 +2604,21 @@
         <v>❌</v>
       </c>
       <c r="F96" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G96" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Siddharth suresh dhage</v>
+        <v>Pawan lodhi</v>
       </c>
       <c r="B97" t="str">
-        <v>9112171775</v>
+        <v>9644410662</v>
       </c>
       <c r="C97" t="str">
-        <v>Reliance Digital- 8916 - RRL CDIT Lawate Nagar Nasik</v>
+        <v>Reliance Digital- TFJ5 - RRL CDIT-Rajendra Na</v>
       </c>
       <c r="D97">
         <v>3</v>
@@ -2635,13 +2635,13 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Mohammad Ibrahim shaikh</v>
+        <v>Vanzara mehul</v>
       </c>
       <c r="B98" t="str">
-        <v>7039978507</v>
+        <v>8849996057</v>
       </c>
       <c r="C98" t="str">
-        <v>Reliance Digital- TQB3 - RRL CDIT R City Mall Ghatkopa</v>
+        <v>Croma- A302 -Vadodara-Nizampura</v>
       </c>
       <c r="D98">
         <v>3</v>
@@ -2658,13 +2658,13 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>PANCHATCHARAM KANNAN</v>
+        <v>Siddiq pasha</v>
       </c>
       <c r="B99" t="str">
-        <v>6379961402</v>
+        <v>9606654579</v>
       </c>
       <c r="C99" t="str">
-        <v>Reliance Digital- 8943 - RRL CDIT Vishaal De Mal Madur</v>
+        <v>Reliance Digital- TG1N - RRLCDIT Mall Of Asia</v>
       </c>
       <c r="D99">
         <v>3</v>
@@ -2673,21 +2673,21 @@
         <v>❌</v>
       </c>
       <c r="F99" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G99" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Satyajit prusty</v>
+        <v>SEKAR KAMALAKANNAN</v>
       </c>
       <c r="B100" t="str">
-        <v>8260544344</v>
+        <v>9884653889</v>
       </c>
       <c r="C100" t="str">
-        <v>Croma- A454 -Cuttack-College Square</v>
+        <v>Reliance Digital- 8978 - RRL CDIT Chrompet Chennai</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2699,21 +2699,21 @@
         <v>❌</v>
       </c>
       <c r="G100" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Hemant sharma</v>
+        <v>NISHANTH</v>
       </c>
       <c r="B101" t="str">
-        <v>8000774890</v>
+        <v>8148819432</v>
       </c>
       <c r="C101" t="str">
-        <v>Reliance Digital- TO34 - RRL CDIT Govind Marg Raja Park</v>
+        <v>Croma- A391 -Chennai-Vivira Mall</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E101" t="str">
         <v>❌</v>
@@ -2727,16 +2727,16 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>PODISHETTI KISHORE</v>
+        <v>VIKASH KUMAR GUPTA</v>
       </c>
       <c r="B102" t="str">
-        <v>7382470372</v>
+        <v>7002712796</v>
       </c>
       <c r="C102" t="str">
-        <v>Croma- A422 -Secunderabad-Nagaram</v>
+        <v>VS- Delhi(Karol Bagh) Br</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E102" t="str">
         <v>❌</v>
@@ -2750,16 +2750,16 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Pawan lodhi</v>
+        <v>Mohd abrar mirza</v>
       </c>
       <c r="B103" t="str">
-        <v>9644410662</v>
+        <v>8555993060</v>
       </c>
       <c r="C103" t="str">
-        <v>Reliance Digital- TFJ5 - RRL CDIT-Rajendra Na</v>
+        <v>VS- Ts(Chandrayangutta)</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E103" t="str">
         <v>❌</v>
@@ -2773,16 +2773,16 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Vanzara mehul</v>
+        <v>MD Yashin</v>
       </c>
       <c r="B104" t="str">
-        <v>8849996057</v>
+        <v>8178078807</v>
       </c>
       <c r="C104" t="str">
-        <v>Croma- A302 -Vadodara-Nizampura</v>
+        <v>VS- Delhi(Roop Nagar)</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E104" t="str">
         <v>❌</v>
@@ -2796,16 +2796,16 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>NISHANTH</v>
+        <v>Umer sayyed</v>
       </c>
       <c r="B105" t="str">
-        <v>8148819432</v>
+        <v>9359012298</v>
       </c>
       <c r="C105" t="str">
-        <v>Croma- A391 -Chennai-Vivira Mall</v>
+        <v>Croma- A129 -Pune-PMC Mall</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E105" t="str">
         <v>❌</v>
@@ -2819,16 +2819,16 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>VIKASH KUMAR GUPTA</v>
+        <v>YASH ANIL TOURANI</v>
       </c>
       <c r="B106" t="str">
-        <v>7002712796</v>
+        <v>8668993472</v>
       </c>
       <c r="C106" t="str">
-        <v>VS- Delhi(Karol Bagh) Br</v>
+        <v>Croma- A108 -Nashik-Solitario</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106" t="str">
         <v>❌</v>
@@ -2842,13 +2842,13 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Mohd abrar mirza</v>
+        <v>Arvind</v>
       </c>
       <c r="B107" t="str">
-        <v>8555993060</v>
+        <v>8700075610</v>
       </c>
       <c r="C107" t="str">
-        <v>VS- Ts(Chandrayangutta)</v>
+        <v>Croma- A311 -Delhi-DB Gupta Road</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -2865,13 +2865,13 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Umer sayyed</v>
+        <v>Mohammed riyahhan A</v>
       </c>
       <c r="B108" t="str">
-        <v>9359012298</v>
+        <v>9843327813</v>
       </c>
       <c r="C108" t="str">
-        <v>Croma- A129 -Pune-PMC Mall</v>
+        <v>Croma- A516 -Vellore-Katpadi</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -2888,13 +2888,13 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>YASH ANIL TOURANI</v>
+        <v>MOHAMMED ATIQUE ABDUL RAFIQUE SHAIKH</v>
       </c>
       <c r="B109" t="str">
-        <v>8668993472</v>
+        <v>7498516090</v>
       </c>
       <c r="C109" t="str">
-        <v>Croma- A108 -Nashik-Solitario</v>
+        <v>Croma- A062 -Chhatrapati Sambhaji Nagar-Prozone Mall</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -2903,21 +2903,21 @@
         <v>❌</v>
       </c>
       <c r="F109" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="G109" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Arvind</v>
+        <v>Karthika</v>
       </c>
       <c r="B110" t="str">
-        <v>8700075610</v>
+        <v>8220163707</v>
       </c>
       <c r="C110" t="str">
-        <v>Croma- A311 -Delhi-DB Gupta Road</v>
+        <v>Croma- A647 -Chennai-Tambaram West</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -2926,21 +2926,21 @@
         <v>❌</v>
       </c>
       <c r="F110" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
       <c r="G110" t="str">
-        <v>❌</v>
+        <v>✅</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Mohammed riyahhan A</v>
+        <v>Anjali Gupta</v>
       </c>
       <c r="B111" t="str">
-        <v>9843327813</v>
+        <v>8700074285</v>
       </c>
       <c r="C111" t="str">
-        <v>Croma- A516 -Vellore-Katpadi</v>
+        <v>VS- Haryana(Mewla M.) Br</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -2957,13 +2957,13 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>MOHAMMED ATIQUE ABDUL RAFIQUE SHAIKH</v>
+        <v>Mukesh kumar</v>
       </c>
       <c r="B112" t="str">
-        <v>7498516090</v>
+        <v>9899538328</v>
       </c>
       <c r="C112" t="str">
-        <v>Croma- A062 -Chhatrapati Sambhaji Nagar-Prozone Mall</v>
+        <v>Croma- A336 -Delhi-Shahdara</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -2972,21 +2972,21 @@
         <v>❌</v>
       </c>
       <c r="F112" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G112" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Karthika</v>
+        <v>Vivek kumar singh</v>
       </c>
       <c r="B113" t="str">
-        <v>8220163707</v>
+        <v>9534403408</v>
       </c>
       <c r="C113" t="str">
-        <v>Croma- A647 -Chennai-Tambaram West</v>
+        <v>Croma- A258 -Delhi-Pitampura</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -2995,21 +2995,21 @@
         <v>❌</v>
       </c>
       <c r="F113" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
       <c r="G113" t="str">
-        <v>✅</v>
+        <v>❌</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Anjali Gupta</v>
+        <v>Kavuri raja</v>
       </c>
       <c r="B114" t="str">
-        <v>8700074285</v>
+        <v>7815985243</v>
       </c>
       <c r="C114" t="str">
-        <v>VS- Haryana(Mewla M.) Br</v>
+        <v>VS- Ts(Kompally- Golden Plaza)</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -3026,13 +3026,13 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Mukesh kumar</v>
+        <v>VINAY TYAGI</v>
       </c>
       <c r="B115" t="str">
-        <v>9899538328</v>
+        <v>8755724146</v>
       </c>
       <c r="C115" t="str">
-        <v>Croma- A336 -Delhi-Shahdara</v>
+        <v>VS- Up (Noida Sec.18) Br</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -3049,13 +3049,13 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Vivek kumar singh</v>
+        <v>Durga sahu</v>
       </c>
       <c r="B116" t="str">
-        <v>9534403408</v>
+        <v>8527709617</v>
       </c>
       <c r="C116" t="str">
-        <v>Croma- A258 -Delhi-Pitampura</v>
+        <v>VS- Up (Noida Sec.18) Br</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -3072,13 +3072,13 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Kavuri raja</v>
+        <v>Ibrahim patel</v>
       </c>
       <c r="B117" t="str">
-        <v>7815985243</v>
+        <v>9052262007</v>
       </c>
       <c r="C117" t="str">
-        <v>VS- Ts(Kompally- Golden Plaza)</v>
+        <v>Croma- A196 -Hyderabad-Madinaguda</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -3095,13 +3095,13 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Ibrahim patel</v>
+        <v>Anup chakraborty</v>
       </c>
       <c r="B118" t="str">
-        <v>9052262007</v>
+        <v>9263405982</v>
       </c>
       <c r="C118" t="str">
-        <v>Croma- A196 -Hyderabad-Madinaguda</v>
+        <v>Croma- A618 -Burdwan-Regent Crown</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -3118,13 +3118,13 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Anup chakraborty</v>
+        <v>MD AMINULLAH</v>
       </c>
       <c r="B119" t="str">
-        <v>9263405982</v>
+        <v>9911242693</v>
       </c>
       <c r="C119" t="str">
-        <v>Croma- A618 -Burdwan-Regent Crown</v>
+        <v>VS- Haryana(Dundahera)</v>
       </c>
       <c r="D119">
         <v>1</v>
